--- a/VRPTW-New/Zeus OS VRPTW Workspace 2018 2.4/Zeus/data/VRPTW/Results/rc105_SWT_LongResults.xlsx
+++ b/VRPTW-New/Zeus OS VRPTW Workspace 2018 2.4/Zeus/data/VRPTW/Results/rc105_SWT_LongResults.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2516" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5032" uniqueCount="25">
   <si>
     <t/>
   </si>
@@ -94,13 +94,23 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="3">
+  <fonts count="5">
     <font>
       <sz val="11.0"/>
       <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -133,10 +143,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true"/>
   </cellXfs>
 </styleSheet>
 </file>
@@ -159,26 +171,26 @@
     <col min="8" max="8" bestFit="true" customWidth="true" width="14.71875" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" s="2" customFormat="true">
-      <c r="A1" t="s" s="2">
+    <row r="1" s="4" customFormat="true">
+      <c r="A1" t="s" s="4">
         <v>1</v>
       </c>
-      <c r="B1" t="s" s="2">
+      <c r="B1" t="s" s="4">
         <v>2</v>
       </c>
-      <c r="C1" t="s" s="2">
+      <c r="C1" t="s" s="4">
         <v>3</v>
       </c>
-      <c r="D1" t="s" s="2">
+      <c r="D1" t="s" s="4">
         <v>4</v>
       </c>
-      <c r="E1" t="s" s="2">
+      <c r="E1" t="s" s="4">
         <v>5</v>
       </c>
-      <c r="F1" t="s" s="2">
+      <c r="F1" t="s" s="4">
         <v>6</v>
       </c>
-      <c r="G1" t="s" s="2">
+      <c r="G1" t="s" s="4">
         <v>7</v>
       </c>
     </row>
@@ -206,28 +218,28 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="s" s="2">
+      <c r="A3" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B3" t="s" s="2">
+      <c r="B3" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C3" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D3" t="s" s="2">
+      <c r="C3" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D3" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E3" t="s" s="2">
+      <c r="E3" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F3" t="s" s="2">
+      <c r="F3" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G3" t="s" s="2">
+      <c r="G3" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H3" t="s" s="2">
+      <c r="H3" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -252,28 +264,28 @@
       </c>
     </row>
     <row r="5">
-      <c r="B5" t="s" s="2">
+      <c r="B5" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C5" t="s" s="2">
+      <c r="C5" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D5" t="s" s="2">
+      <c r="D5" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E5" t="s" s="2">
+      <c r="E5" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F5" t="s" s="2">
+      <c r="F5" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G5" t="s" s="2">
+      <c r="G5" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H5" t="s" s="2">
+      <c r="H5" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I5" t="s" s="2">
+      <c r="I5" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -419,10 +431,10 @@
       <c r="I10">
         <f>((C10-C9)^2+(D10- D9)^2)^.5</f>
       </c>
-      <c r="J10" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K10" s="2" t="s">
+      <c r="J10" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K10" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L10" t="n">
@@ -466,28 +478,28 @@
       </c>
     </row>
     <row r="12">
-      <c r="A12" t="s" s="2">
+      <c r="A12" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B12" t="s" s="2">
+      <c r="B12" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C12" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D12" t="s" s="2">
+      <c r="C12" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D12" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E12" t="s" s="2">
+      <c r="E12" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F12" t="s" s="2">
+      <c r="F12" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G12" t="s" s="2">
+      <c r="G12" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H12" t="s" s="2">
+      <c r="H12" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -512,28 +524,28 @@
       </c>
     </row>
     <row r="14">
-      <c r="B14" t="s" s="2">
+      <c r="B14" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C14" t="s" s="2">
+      <c r="C14" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D14" t="s" s="2">
+      <c r="D14" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E14" t="s" s="2">
+      <c r="E14" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F14" t="s" s="2">
+      <c r="F14" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G14" t="s" s="2">
+      <c r="G14" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H14" t="s" s="2">
+      <c r="H14" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I14" t="s" s="2">
+      <c r="I14" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -679,10 +691,10 @@
       <c r="I19">
         <f>((C19-C18)^2+(D19- D18)^2)^.5</f>
       </c>
-      <c r="J19" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K19" s="2" t="s">
+      <c r="J19" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K19" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L19" t="n">
@@ -726,28 +738,28 @@
       </c>
     </row>
     <row r="21">
-      <c r="A21" t="s" s="2">
+      <c r="A21" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B21" t="s" s="2">
+      <c r="B21" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C21" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D21" t="s" s="2">
+      <c r="C21" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D21" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E21" t="s" s="2">
+      <c r="E21" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F21" t="s" s="2">
+      <c r="F21" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G21" t="s" s="2">
+      <c r="G21" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H21" t="s" s="2">
+      <c r="H21" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -772,28 +784,28 @@
       </c>
     </row>
     <row r="23">
-      <c r="B23" t="s" s="2">
+      <c r="B23" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C23" t="s" s="2">
+      <c r="C23" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D23" t="s" s="2">
+      <c r="D23" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E23" t="s" s="2">
+      <c r="E23" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F23" t="s" s="2">
+      <c r="F23" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G23" t="s" s="2">
+      <c r="G23" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H23" t="s" s="2">
+      <c r="H23" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I23" t="s" s="2">
+      <c r="I23" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -939,10 +951,10 @@
       <c r="I28">
         <f>((C28-C27)^2+(D28- D27)^2)^.5</f>
       </c>
-      <c r="J28" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K28" s="2" t="s">
+      <c r="J28" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K28" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L28" t="n">
@@ -986,28 +998,28 @@
       </c>
     </row>
     <row r="30">
-      <c r="A30" t="s" s="2">
+      <c r="A30" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B30" t="s" s="2">
+      <c r="B30" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C30" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D30" t="s" s="2">
+      <c r="C30" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D30" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E30" t="s" s="2">
+      <c r="E30" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F30" t="s" s="2">
+      <c r="F30" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G30" t="s" s="2">
+      <c r="G30" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H30" t="s" s="2">
+      <c r="H30" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -1032,28 +1044,28 @@
       </c>
     </row>
     <row r="32">
-      <c r="B32" t="s" s="2">
+      <c r="B32" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C32" t="s" s="2">
+      <c r="C32" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D32" t="s" s="2">
+      <c r="D32" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E32" t="s" s="2">
+      <c r="E32" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F32" t="s" s="2">
+      <c r="F32" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G32" t="s" s="2">
+      <c r="G32" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H32" t="s" s="2">
+      <c r="H32" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I32" t="s" s="2">
+      <c r="I32" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -1170,10 +1182,10 @@
       <c r="I36">
         <f>((C36-C35)^2+(D36- D35)^2)^.5</f>
       </c>
-      <c r="J36" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K36" s="2" t="s">
+      <c r="J36" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K36" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L36" t="n">
@@ -1217,28 +1229,28 @@
       </c>
     </row>
     <row r="38">
-      <c r="A38" t="s" s="2">
+      <c r="A38" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B38" t="s" s="2">
+      <c r="B38" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C38" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D38" t="s" s="2">
+      <c r="C38" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D38" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E38" t="s" s="2">
+      <c r="E38" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F38" t="s" s="2">
+      <c r="F38" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G38" t="s" s="2">
+      <c r="G38" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H38" t="s" s="2">
+      <c r="H38" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -1263,28 +1275,28 @@
       </c>
     </row>
     <row r="40">
-      <c r="B40" t="s" s="2">
+      <c r="B40" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C40" t="s" s="2">
+      <c r="C40" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D40" t="s" s="2">
+      <c r="D40" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E40" t="s" s="2">
+      <c r="E40" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F40" t="s" s="2">
+      <c r="F40" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G40" t="s" s="2">
+      <c r="G40" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H40" t="s" s="2">
+      <c r="H40" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I40" t="s" s="2">
+      <c r="I40" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -1430,10 +1442,10 @@
       <c r="I45">
         <f>((C45-C44)^2+(D45- D44)^2)^.5</f>
       </c>
-      <c r="J45" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K45" s="2" t="s">
+      <c r="J45" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K45" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L45" t="n">
@@ -1477,28 +1489,28 @@
       </c>
     </row>
     <row r="47">
-      <c r="A47" t="s" s="2">
+      <c r="A47" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B47" t="s" s="2">
+      <c r="B47" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C47" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D47" t="s" s="2">
+      <c r="C47" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D47" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E47" t="s" s="2">
+      <c r="E47" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F47" t="s" s="2">
+      <c r="F47" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G47" t="s" s="2">
+      <c r="G47" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H47" t="s" s="2">
+      <c r="H47" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -1523,28 +1535,28 @@
       </c>
     </row>
     <row r="49">
-      <c r="B49" t="s" s="2">
+      <c r="B49" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C49" t="s" s="2">
+      <c r="C49" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D49" t="s" s="2">
+      <c r="D49" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E49" t="s" s="2">
+      <c r="E49" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F49" t="s" s="2">
+      <c r="F49" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G49" t="s" s="2">
+      <c r="G49" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H49" t="s" s="2">
+      <c r="H49" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I49" t="s" s="2">
+      <c r="I49" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -1632,10 +1644,10 @@
       <c r="I52">
         <f>((C52-C51)^2+(D52- D51)^2)^.5</f>
       </c>
-      <c r="J52" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K52" s="2" t="s">
+      <c r="J52" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K52" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L52" t="n">
@@ -1679,28 +1691,28 @@
       </c>
     </row>
     <row r="54">
-      <c r="A54" t="s" s="2">
+      <c r="A54" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B54" t="s" s="2">
+      <c r="B54" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C54" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D54" t="s" s="2">
+      <c r="C54" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D54" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E54" t="s" s="2">
+      <c r="E54" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F54" t="s" s="2">
+      <c r="F54" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G54" t="s" s="2">
+      <c r="G54" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H54" t="s" s="2">
+      <c r="H54" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -1725,28 +1737,28 @@
       </c>
     </row>
     <row r="56">
-      <c r="B56" t="s" s="2">
+      <c r="B56" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C56" t="s" s="2">
+      <c r="C56" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D56" t="s" s="2">
+      <c r="D56" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E56" t="s" s="2">
+      <c r="E56" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F56" t="s" s="2">
+      <c r="F56" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G56" t="s" s="2">
+      <c r="G56" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H56" t="s" s="2">
+      <c r="H56" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I56" t="s" s="2">
+      <c r="I56" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -1892,10 +1904,10 @@
       <c r="I61">
         <f>((C61-C60)^2+(D61- D60)^2)^.5</f>
       </c>
-      <c r="J61" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K61" s="2" t="s">
+      <c r="J61" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K61" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L61" t="n">
@@ -1939,28 +1951,28 @@
       </c>
     </row>
     <row r="63">
-      <c r="A63" t="s" s="2">
+      <c r="A63" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B63" t="s" s="2">
+      <c r="B63" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C63" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D63" t="s" s="2">
+      <c r="C63" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D63" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E63" t="s" s="2">
+      <c r="E63" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F63" t="s" s="2">
+      <c r="F63" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G63" t="s" s="2">
+      <c r="G63" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H63" t="s" s="2">
+      <c r="H63" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -1985,28 +1997,28 @@
       </c>
     </row>
     <row r="65">
-      <c r="B65" t="s" s="2">
+      <c r="B65" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C65" t="s" s="2">
+      <c r="C65" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D65" t="s" s="2">
+      <c r="D65" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E65" t="s" s="2">
+      <c r="E65" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F65" t="s" s="2">
+      <c r="F65" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G65" t="s" s="2">
+      <c r="G65" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H65" t="s" s="2">
+      <c r="H65" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I65" t="s" s="2">
+      <c r="I65" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -2065,10 +2077,10 @@
       <c r="I67">
         <f>((C67-C66)^2+(D67- D66)^2)^.5</f>
       </c>
-      <c r="J67" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K67" s="2" t="s">
+      <c r="J67" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K67" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L67" t="n">
@@ -2112,28 +2124,28 @@
       </c>
     </row>
     <row r="69">
-      <c r="A69" t="s" s="2">
+      <c r="A69" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B69" t="s" s="2">
+      <c r="B69" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C69" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D69" t="s" s="2">
+      <c r="C69" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D69" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E69" t="s" s="2">
+      <c r="E69" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F69" t="s" s="2">
+      <c r="F69" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G69" t="s" s="2">
+      <c r="G69" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H69" t="s" s="2">
+      <c r="H69" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -2158,28 +2170,28 @@
       </c>
     </row>
     <row r="71">
-      <c r="B71" t="s" s="2">
+      <c r="B71" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C71" t="s" s="2">
+      <c r="C71" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D71" t="s" s="2">
+      <c r="D71" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E71" t="s" s="2">
+      <c r="E71" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F71" t="s" s="2">
+      <c r="F71" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G71" t="s" s="2">
+      <c r="G71" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H71" t="s" s="2">
+      <c r="H71" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I71" t="s" s="2">
+      <c r="I71" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -2238,10 +2250,10 @@
       <c r="I73">
         <f>((C73-C72)^2+(D73- D72)^2)^.5</f>
       </c>
-      <c r="J73" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K73" s="2" t="s">
+      <c r="J73" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K73" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L73" t="n">
@@ -2285,28 +2297,28 @@
       </c>
     </row>
     <row r="75">
-      <c r="A75" t="s" s="2">
+      <c r="A75" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B75" t="s" s="2">
+      <c r="B75" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C75" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D75" t="s" s="2">
+      <c r="C75" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D75" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E75" t="s" s="2">
+      <c r="E75" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F75" t="s" s="2">
+      <c r="F75" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G75" t="s" s="2">
+      <c r="G75" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H75" t="s" s="2">
+      <c r="H75" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -2331,28 +2343,28 @@
       </c>
     </row>
     <row r="77">
-      <c r="B77" t="s" s="2">
+      <c r="B77" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C77" t="s" s="2">
+      <c r="C77" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D77" t="s" s="2">
+      <c r="D77" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E77" t="s" s="2">
+      <c r="E77" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F77" t="s" s="2">
+      <c r="F77" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G77" t="s" s="2">
+      <c r="G77" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H77" t="s" s="2">
+      <c r="H77" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I77" t="s" s="2">
+      <c r="I77" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -2469,10 +2481,10 @@
       <c r="I81">
         <f>((C81-C80)^2+(D81- D80)^2)^.5</f>
       </c>
-      <c r="J81" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K81" s="2" t="s">
+      <c r="J81" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K81" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L81" t="n">
@@ -2516,28 +2528,28 @@
       </c>
     </row>
     <row r="83">
-      <c r="A83" t="s" s="2">
+      <c r="A83" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B83" t="s" s="2">
+      <c r="B83" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C83" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D83" t="s" s="2">
+      <c r="C83" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D83" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E83" t="s" s="2">
+      <c r="E83" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F83" t="s" s="2">
+      <c r="F83" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G83" t="s" s="2">
+      <c r="G83" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H83" t="s" s="2">
+      <c r="H83" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -2562,28 +2574,28 @@
       </c>
     </row>
     <row r="85">
-      <c r="B85" t="s" s="2">
+      <c r="B85" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C85" t="s" s="2">
+      <c r="C85" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D85" t="s" s="2">
+      <c r="D85" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E85" t="s" s="2">
+      <c r="E85" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F85" t="s" s="2">
+      <c r="F85" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G85" t="s" s="2">
+      <c r="G85" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H85" t="s" s="2">
+      <c r="H85" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I85" t="s" s="2">
+      <c r="I85" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -2700,10 +2712,10 @@
       <c r="I89">
         <f>((C89-C88)^2+(D89- D88)^2)^.5</f>
       </c>
-      <c r="J89" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K89" s="2" t="s">
+      <c r="J89" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K89" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L89" t="n">
@@ -2747,28 +2759,28 @@
       </c>
     </row>
     <row r="91">
-      <c r="A91" t="s" s="2">
+      <c r="A91" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B91" t="s" s="2">
+      <c r="B91" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C91" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D91" t="s" s="2">
+      <c r="C91" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D91" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E91" t="s" s="2">
+      <c r="E91" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F91" t="s" s="2">
+      <c r="F91" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G91" t="s" s="2">
+      <c r="G91" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H91" t="s" s="2">
+      <c r="H91" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -2793,28 +2805,28 @@
       </c>
     </row>
     <row r="93">
-      <c r="B93" t="s" s="2">
+      <c r="B93" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C93" t="s" s="2">
+      <c r="C93" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D93" t="s" s="2">
+      <c r="D93" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E93" t="s" s="2">
+      <c r="E93" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F93" t="s" s="2">
+      <c r="F93" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G93" t="s" s="2">
+      <c r="G93" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H93" t="s" s="2">
+      <c r="H93" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I93" t="s" s="2">
+      <c r="I93" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -2960,10 +2972,10 @@
       <c r="I98">
         <f>((C98-C97)^2+(D98- D97)^2)^.5</f>
       </c>
-      <c r="J98" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K98" s="2" t="s">
+      <c r="J98" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K98" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L98" t="n">
@@ -3007,28 +3019,28 @@
       </c>
     </row>
     <row r="100">
-      <c r="A100" t="s" s="2">
+      <c r="A100" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B100" t="s" s="2">
+      <c r="B100" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C100" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D100" t="s" s="2">
+      <c r="C100" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D100" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E100" t="s" s="2">
+      <c r="E100" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F100" t="s" s="2">
+      <c r="F100" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G100" t="s" s="2">
+      <c r="G100" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H100" t="s" s="2">
+      <c r="H100" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -3053,28 +3065,28 @@
       </c>
     </row>
     <row r="102">
-      <c r="B102" t="s" s="2">
+      <c r="B102" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C102" t="s" s="2">
+      <c r="C102" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D102" t="s" s="2">
+      <c r="D102" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E102" t="s" s="2">
+      <c r="E102" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F102" t="s" s="2">
+      <c r="F102" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G102" t="s" s="2">
+      <c r="G102" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H102" t="s" s="2">
+      <c r="H102" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I102" t="s" s="2">
+      <c r="I102" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -3191,10 +3203,10 @@
       <c r="I106">
         <f>((C106-C105)^2+(D106- D105)^2)^.5</f>
       </c>
-      <c r="J106" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K106" s="2" t="s">
+      <c r="J106" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K106" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L106" t="n">
@@ -3238,28 +3250,28 @@
       </c>
     </row>
     <row r="108">
-      <c r="A108" t="s" s="2">
+      <c r="A108" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B108" t="s" s="2">
+      <c r="B108" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C108" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D108" t="s" s="2">
+      <c r="C108" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D108" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E108" t="s" s="2">
+      <c r="E108" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F108" t="s" s="2">
+      <c r="F108" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G108" t="s" s="2">
+      <c r="G108" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H108" t="s" s="2">
+      <c r="H108" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -3284,28 +3296,28 @@
       </c>
     </row>
     <row r="110">
-      <c r="B110" t="s" s="2">
+      <c r="B110" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C110" t="s" s="2">
+      <c r="C110" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D110" t="s" s="2">
+      <c r="D110" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E110" t="s" s="2">
+      <c r="E110" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F110" t="s" s="2">
+      <c r="F110" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G110" t="s" s="2">
+      <c r="G110" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H110" t="s" s="2">
+      <c r="H110" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I110" t="s" s="2">
+      <c r="I110" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -3422,10 +3434,10 @@
       <c r="I114">
         <f>((C114-C113)^2+(D114- D113)^2)^.5</f>
       </c>
-      <c r="J114" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K114" s="2" t="s">
+      <c r="J114" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K114" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L114" t="n">
@@ -3469,28 +3481,28 @@
       </c>
     </row>
     <row r="116">
-      <c r="A116" t="s" s="2">
+      <c r="A116" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B116" t="s" s="2">
+      <c r="B116" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C116" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D116" t="s" s="2">
+      <c r="C116" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D116" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E116" t="s" s="2">
+      <c r="E116" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F116" t="s" s="2">
+      <c r="F116" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G116" t="s" s="2">
+      <c r="G116" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H116" t="s" s="2">
+      <c r="H116" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -3515,28 +3527,28 @@
       </c>
     </row>
     <row r="118">
-      <c r="B118" t="s" s="2">
+      <c r="B118" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C118" t="s" s="2">
+      <c r="C118" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D118" t="s" s="2">
+      <c r="D118" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E118" t="s" s="2">
+      <c r="E118" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F118" t="s" s="2">
+      <c r="F118" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G118" t="s" s="2">
+      <c r="G118" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H118" t="s" s="2">
+      <c r="H118" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I118" t="s" s="2">
+      <c r="I118" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -3653,10 +3665,10 @@
       <c r="I122">
         <f>((C122-C121)^2+(D122- D121)^2)^.5</f>
       </c>
-      <c r="J122" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K122" s="2" t="s">
+      <c r="J122" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K122" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L122" t="n">
@@ -3700,28 +3712,28 @@
       </c>
     </row>
     <row r="124">
-      <c r="A124" t="s" s="2">
+      <c r="A124" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B124" t="s" s="2">
+      <c r="B124" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C124" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D124" t="s" s="2">
+      <c r="C124" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D124" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E124" t="s" s="2">
+      <c r="E124" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F124" t="s" s="2">
+      <c r="F124" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G124" t="s" s="2">
+      <c r="G124" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H124" t="s" s="2">
+      <c r="H124" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -3746,28 +3758,28 @@
       </c>
     </row>
     <row r="126">
-      <c r="B126" t="s" s="2">
+      <c r="B126" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C126" t="s" s="2">
+      <c r="C126" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D126" t="s" s="2">
+      <c r="D126" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E126" t="s" s="2">
+      <c r="E126" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F126" t="s" s="2">
+      <c r="F126" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G126" t="s" s="2">
+      <c r="G126" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H126" t="s" s="2">
+      <c r="H126" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I126" t="s" s="2">
+      <c r="I126" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -3826,10 +3838,10 @@
       <c r="I128">
         <f>((C128-C127)^2+(D128- D127)^2)^.5</f>
       </c>
-      <c r="J128" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K128" s="2" t="s">
+      <c r="J128" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K128" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L128" t="n">
@@ -3873,28 +3885,28 @@
       </c>
     </row>
     <row r="130">
-      <c r="A130" t="s" s="2">
+      <c r="A130" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B130" t="s" s="2">
+      <c r="B130" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C130" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D130" t="s" s="2">
+      <c r="C130" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D130" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E130" t="s" s="2">
+      <c r="E130" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F130" t="s" s="2">
+      <c r="F130" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G130" t="s" s="2">
+      <c r="G130" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H130" t="s" s="2">
+      <c r="H130" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -3919,28 +3931,28 @@
       </c>
     </row>
     <row r="132">
-      <c r="B132" t="s" s="2">
+      <c r="B132" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C132" t="s" s="2">
+      <c r="C132" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D132" t="s" s="2">
+      <c r="D132" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E132" t="s" s="2">
+      <c r="E132" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F132" t="s" s="2">
+      <c r="F132" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G132" t="s" s="2">
+      <c r="G132" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H132" t="s" s="2">
+      <c r="H132" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I132" t="s" s="2">
+      <c r="I132" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -3999,10 +4011,10 @@
       <c r="I134">
         <f>((C134-C133)^2+(D134- D133)^2)^.5</f>
       </c>
-      <c r="J134" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K134" s="2" t="s">
+      <c r="J134" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K134" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L134" t="n">
@@ -4046,28 +4058,28 @@
       </c>
     </row>
     <row r="136">
-      <c r="A136" t="s" s="2">
+      <c r="A136" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B136" t="s" s="2">
+      <c r="B136" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C136" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D136" t="s" s="2">
+      <c r="C136" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D136" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E136" t="s" s="2">
+      <c r="E136" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F136" t="s" s="2">
+      <c r="F136" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G136" t="s" s="2">
+      <c r="G136" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H136" t="s" s="2">
+      <c r="H136" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -4092,28 +4104,28 @@
       </c>
     </row>
     <row r="138">
-      <c r="B138" t="s" s="2">
+      <c r="B138" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C138" t="s" s="2">
+      <c r="C138" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D138" t="s" s="2">
+      <c r="D138" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E138" t="s" s="2">
+      <c r="E138" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F138" t="s" s="2">
+      <c r="F138" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G138" t="s" s="2">
+      <c r="G138" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H138" t="s" s="2">
+      <c r="H138" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I138" t="s" s="2">
+      <c r="I138" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -4172,10 +4184,10 @@
       <c r="I140">
         <f>((C140-C139)^2+(D140- D139)^2)^.5</f>
       </c>
-      <c r="J140" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K140" s="2" t="s">
+      <c r="J140" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K140" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L140" t="n">
@@ -4219,28 +4231,28 @@
       </c>
     </row>
     <row r="142">
-      <c r="A142" t="s" s="2">
+      <c r="A142" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B142" t="s" s="2">
+      <c r="B142" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C142" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D142" t="s" s="2">
+      <c r="C142" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D142" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E142" t="s" s="2">
+      <c r="E142" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F142" t="s" s="2">
+      <c r="F142" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G142" t="s" s="2">
+      <c r="G142" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H142" t="s" s="2">
+      <c r="H142" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -4265,28 +4277,28 @@
       </c>
     </row>
     <row r="144">
-      <c r="B144" t="s" s="2">
+      <c r="B144" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C144" t="s" s="2">
+      <c r="C144" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D144" t="s" s="2">
+      <c r="D144" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E144" t="s" s="2">
+      <c r="E144" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F144" t="s" s="2">
+      <c r="F144" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G144" t="s" s="2">
+      <c r="G144" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H144" t="s" s="2">
+      <c r="H144" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I144" t="s" s="2">
+      <c r="I144" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -4345,10 +4357,10 @@
       <c r="I146">
         <f>((C146-C145)^2+(D146- D145)^2)^.5</f>
       </c>
-      <c r="J146" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K146" s="2" t="s">
+      <c r="J146" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K146" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L146" t="n">
@@ -4392,28 +4404,28 @@
       </c>
     </row>
     <row r="148">
-      <c r="A148" t="s" s="2">
+      <c r="A148" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B148" t="s" s="2">
+      <c r="B148" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C148" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D148" t="s" s="2">
+      <c r="C148" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D148" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E148" t="s" s="2">
+      <c r="E148" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F148" t="s" s="2">
+      <c r="F148" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G148" t="s" s="2">
+      <c r="G148" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H148" t="s" s="2">
+      <c r="H148" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -4438,28 +4450,28 @@
       </c>
     </row>
     <row r="150">
-      <c r="B150" t="s" s="2">
+      <c r="B150" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C150" t="s" s="2">
+      <c r="C150" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D150" t="s" s="2">
+      <c r="D150" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E150" t="s" s="2">
+      <c r="E150" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F150" t="s" s="2">
+      <c r="F150" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G150" t="s" s="2">
+      <c r="G150" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H150" t="s" s="2">
+      <c r="H150" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I150" t="s" s="2">
+      <c r="I150" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -4518,10 +4530,10 @@
       <c r="I152">
         <f>((C152-C151)^2+(D152- D151)^2)^.5</f>
       </c>
-      <c r="J152" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K152" s="2" t="s">
+      <c r="J152" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K152" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L152" t="n">
@@ -4565,28 +4577,28 @@
       </c>
     </row>
     <row r="154">
-      <c r="A154" t="s" s="2">
+      <c r="A154" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B154" t="s" s="2">
+      <c r="B154" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C154" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D154" t="s" s="2">
+      <c r="C154" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D154" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E154" t="s" s="2">
+      <c r="E154" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F154" t="s" s="2">
+      <c r="F154" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G154" t="s" s="2">
+      <c r="G154" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H154" t="s" s="2">
+      <c r="H154" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -4611,28 +4623,28 @@
       </c>
     </row>
     <row r="156">
-      <c r="B156" t="s" s="2">
+      <c r="B156" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C156" t="s" s="2">
+      <c r="C156" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D156" t="s" s="2">
+      <c r="D156" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E156" t="s" s="2">
+      <c r="E156" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F156" t="s" s="2">
+      <c r="F156" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G156" t="s" s="2">
+      <c r="G156" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H156" t="s" s="2">
+      <c r="H156" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I156" t="s" s="2">
+      <c r="I156" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -4691,10 +4703,10 @@
       <c r="I158">
         <f>((C158-C157)^2+(D158- D157)^2)^.5</f>
       </c>
-      <c r="J158" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K158" s="2" t="s">
+      <c r="J158" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K158" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L158" t="n">
@@ -4738,28 +4750,28 @@
       </c>
     </row>
     <row r="160">
-      <c r="A160" t="s" s="2">
+      <c r="A160" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B160" t="s" s="2">
+      <c r="B160" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C160" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D160" t="s" s="2">
+      <c r="C160" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D160" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E160" t="s" s="2">
+      <c r="E160" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F160" t="s" s="2">
+      <c r="F160" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G160" t="s" s="2">
+      <c r="G160" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H160" t="s" s="2">
+      <c r="H160" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -4784,28 +4796,28 @@
       </c>
     </row>
     <row r="162">
-      <c r="B162" t="s" s="2">
+      <c r="B162" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C162" t="s" s="2">
+      <c r="C162" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D162" t="s" s="2">
+      <c r="D162" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E162" t="s" s="2">
+      <c r="E162" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F162" t="s" s="2">
+      <c r="F162" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G162" t="s" s="2">
+      <c r="G162" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H162" t="s" s="2">
+      <c r="H162" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I162" t="s" s="2">
+      <c r="I162" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -4864,10 +4876,10 @@
       <c r="I164">
         <f>((C164-C163)^2+(D164- D163)^2)^.5</f>
       </c>
-      <c r="J164" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K164" s="2" t="s">
+      <c r="J164" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K164" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L164" t="n">
@@ -4911,28 +4923,28 @@
       </c>
     </row>
     <row r="166">
-      <c r="A166" t="s" s="2">
+      <c r="A166" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B166" t="s" s="2">
+      <c r="B166" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C166" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D166" t="s" s="2">
+      <c r="C166" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D166" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E166" t="s" s="2">
+      <c r="E166" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F166" t="s" s="2">
+      <c r="F166" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G166" t="s" s="2">
+      <c r="G166" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H166" t="s" s="2">
+      <c r="H166" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -4957,28 +4969,28 @@
       </c>
     </row>
     <row r="168">
-      <c r="B168" t="s" s="2">
+      <c r="B168" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C168" t="s" s="2">
+      <c r="C168" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D168" t="s" s="2">
+      <c r="D168" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E168" t="s" s="2">
+      <c r="E168" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F168" t="s" s="2">
+      <c r="F168" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G168" t="s" s="2">
+      <c r="G168" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H168" t="s" s="2">
+      <c r="H168" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I168" t="s" s="2">
+      <c r="I168" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -5037,10 +5049,10 @@
       <c r="I170">
         <f>((C170-C169)^2+(D170- D169)^2)^.5</f>
       </c>
-      <c r="J170" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K170" s="2" t="s">
+      <c r="J170" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K170" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L170" t="n">
@@ -5084,28 +5096,28 @@
       </c>
     </row>
     <row r="172">
-      <c r="A172" t="s" s="2">
+      <c r="A172" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B172" t="s" s="2">
+      <c r="B172" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C172" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D172" t="s" s="2">
+      <c r="C172" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D172" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E172" t="s" s="2">
+      <c r="E172" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F172" t="s" s="2">
+      <c r="F172" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G172" t="s" s="2">
+      <c r="G172" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H172" t="s" s="2">
+      <c r="H172" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -5130,28 +5142,28 @@
       </c>
     </row>
     <row r="174">
-      <c r="B174" t="s" s="2">
+      <c r="B174" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C174" t="s" s="2">
+      <c r="C174" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D174" t="s" s="2">
+      <c r="D174" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E174" t="s" s="2">
+      <c r="E174" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F174" t="s" s="2">
+      <c r="F174" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G174" t="s" s="2">
+      <c r="G174" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H174" t="s" s="2">
+      <c r="H174" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I174" t="s" s="2">
+      <c r="I174" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -5210,10 +5222,10 @@
       <c r="I176">
         <f>((C176-C175)^2+(D176- D175)^2)^.5</f>
       </c>
-      <c r="J176" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K176" s="2" t="s">
+      <c r="J176" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K176" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L176" t="n">
@@ -5257,28 +5269,28 @@
       </c>
     </row>
     <row r="178">
-      <c r="A178" t="s" s="2">
+      <c r="A178" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B178" t="s" s="2">
+      <c r="B178" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C178" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D178" t="s" s="2">
+      <c r="C178" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D178" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E178" t="s" s="2">
+      <c r="E178" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F178" t="s" s="2">
+      <c r="F178" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G178" t="s" s="2">
+      <c r="G178" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H178" t="s" s="2">
+      <c r="H178" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -5303,28 +5315,28 @@
       </c>
     </row>
     <row r="180">
-      <c r="B180" t="s" s="2">
+      <c r="B180" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C180" t="s" s="2">
+      <c r="C180" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D180" t="s" s="2">
+      <c r="D180" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E180" t="s" s="2">
+      <c r="E180" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F180" t="s" s="2">
+      <c r="F180" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G180" t="s" s="2">
+      <c r="G180" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H180" t="s" s="2">
+      <c r="H180" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I180" t="s" s="2">
+      <c r="I180" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -5383,10 +5395,10 @@
       <c r="I182">
         <f>((C182-C181)^2+(D182- D181)^2)^.5</f>
       </c>
-      <c r="J182" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K182" s="2" t="s">
+      <c r="J182" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K182" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L182" t="n">
@@ -5430,28 +5442,28 @@
       </c>
     </row>
     <row r="184">
-      <c r="A184" t="s" s="2">
+      <c r="A184" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B184" t="s" s="2">
+      <c r="B184" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C184" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D184" t="s" s="2">
+      <c r="C184" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D184" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E184" t="s" s="2">
+      <c r="E184" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F184" t="s" s="2">
+      <c r="F184" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G184" t="s" s="2">
+      <c r="G184" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H184" t="s" s="2">
+      <c r="H184" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -5476,28 +5488,28 @@
       </c>
     </row>
     <row r="186">
-      <c r="B186" t="s" s="2">
+      <c r="B186" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C186" t="s" s="2">
+      <c r="C186" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D186" t="s" s="2">
+      <c r="D186" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E186" t="s" s="2">
+      <c r="E186" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F186" t="s" s="2">
+      <c r="F186" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G186" t="s" s="2">
+      <c r="G186" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H186" t="s" s="2">
+      <c r="H186" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I186" t="s" s="2">
+      <c r="I186" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -5556,10 +5568,10 @@
       <c r="I188">
         <f>((C188-C187)^2+(D188- D187)^2)^.5</f>
       </c>
-      <c r="J188" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K188" s="2" t="s">
+      <c r="J188" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K188" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L188" t="n">
@@ -5603,28 +5615,28 @@
       </c>
     </row>
     <row r="190">
-      <c r="A190" t="s" s="2">
+      <c r="A190" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B190" t="s" s="2">
+      <c r="B190" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C190" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D190" t="s" s="2">
+      <c r="C190" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D190" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E190" t="s" s="2">
+      <c r="E190" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F190" t="s" s="2">
+      <c r="F190" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G190" t="s" s="2">
+      <c r="G190" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H190" t="s" s="2">
+      <c r="H190" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -5649,28 +5661,28 @@
       </c>
     </row>
     <row r="192">
-      <c r="B192" t="s" s="2">
+      <c r="B192" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C192" t="s" s="2">
+      <c r="C192" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D192" t="s" s="2">
+      <c r="D192" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E192" t="s" s="2">
+      <c r="E192" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F192" t="s" s="2">
+      <c r="F192" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G192" t="s" s="2">
+      <c r="G192" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H192" t="s" s="2">
+      <c r="H192" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I192" t="s" s="2">
+      <c r="I192" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -5729,10 +5741,10 @@
       <c r="I194">
         <f>((C194-C193)^2+(D194- D193)^2)^.5</f>
       </c>
-      <c r="J194" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K194" s="2" t="s">
+      <c r="J194" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K194" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L194" t="n">
@@ -5776,28 +5788,28 @@
       </c>
     </row>
     <row r="196">
-      <c r="A196" t="s" s="2">
+      <c r="A196" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B196" t="s" s="2">
+      <c r="B196" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C196" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D196" t="s" s="2">
+      <c r="C196" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D196" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E196" t="s" s="2">
+      <c r="E196" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F196" t="s" s="2">
+      <c r="F196" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G196" t="s" s="2">
+      <c r="G196" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H196" t="s" s="2">
+      <c r="H196" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -5822,28 +5834,28 @@
       </c>
     </row>
     <row r="198">
-      <c r="B198" t="s" s="2">
+      <c r="B198" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C198" t="s" s="2">
+      <c r="C198" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D198" t="s" s="2">
+      <c r="D198" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E198" t="s" s="2">
+      <c r="E198" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F198" t="s" s="2">
+      <c r="F198" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G198" t="s" s="2">
+      <c r="G198" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H198" t="s" s="2">
+      <c r="H198" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I198" t="s" s="2">
+      <c r="I198" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -5902,10 +5914,10 @@
       <c r="I200">
         <f>((C200-C199)^2+(D200- D199)^2)^.5</f>
       </c>
-      <c r="J200" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K200" s="2" t="s">
+      <c r="J200" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K200" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L200" t="n">
@@ -5949,28 +5961,28 @@
       </c>
     </row>
     <row r="202">
-      <c r="A202" t="s" s="2">
+      <c r="A202" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B202" t="s" s="2">
+      <c r="B202" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C202" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D202" t="s" s="2">
+      <c r="C202" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D202" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E202" t="s" s="2">
+      <c r="E202" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F202" t="s" s="2">
+      <c r="F202" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G202" t="s" s="2">
+      <c r="G202" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H202" t="s" s="2">
+      <c r="H202" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -5995,28 +6007,28 @@
       </c>
     </row>
     <row r="204">
-      <c r="B204" t="s" s="2">
+      <c r="B204" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C204" t="s" s="2">
+      <c r="C204" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D204" t="s" s="2">
+      <c r="D204" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E204" t="s" s="2">
+      <c r="E204" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F204" t="s" s="2">
+      <c r="F204" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G204" t="s" s="2">
+      <c r="G204" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H204" t="s" s="2">
+      <c r="H204" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I204" t="s" s="2">
+      <c r="I204" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -6075,10 +6087,10 @@
       <c r="I206">
         <f>((C206-C205)^2+(D206- D205)^2)^.5</f>
       </c>
-      <c r="J206" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K206" s="2" t="s">
+      <c r="J206" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K206" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L206" t="n">
@@ -6122,28 +6134,28 @@
       </c>
     </row>
     <row r="208">
-      <c r="A208" t="s" s="2">
+      <c r="A208" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B208" t="s" s="2">
+      <c r="B208" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C208" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D208" t="s" s="2">
+      <c r="C208" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D208" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E208" t="s" s="2">
+      <c r="E208" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F208" t="s" s="2">
+      <c r="F208" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G208" t="s" s="2">
+      <c r="G208" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H208" t="s" s="2">
+      <c r="H208" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -6168,28 +6180,28 @@
       </c>
     </row>
     <row r="210">
-      <c r="B210" t="s" s="2">
+      <c r="B210" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C210" t="s" s="2">
+      <c r="C210" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D210" t="s" s="2">
+      <c r="D210" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E210" t="s" s="2">
+      <c r="E210" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F210" t="s" s="2">
+      <c r="F210" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G210" t="s" s="2">
+      <c r="G210" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H210" t="s" s="2">
+      <c r="H210" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I210" t="s" s="2">
+      <c r="I210" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -6248,10 +6260,10 @@
       <c r="I212">
         <f>((C212-C211)^2+(D212- D211)^2)^.5</f>
       </c>
-      <c r="J212" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K212" s="2" t="s">
+      <c r="J212" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K212" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L212" t="n">
@@ -6295,28 +6307,28 @@
       </c>
     </row>
     <row r="214">
-      <c r="A214" t="s" s="2">
+      <c r="A214" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B214" t="s" s="2">
+      <c r="B214" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C214" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D214" t="s" s="2">
+      <c r="C214" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D214" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E214" t="s" s="2">
+      <c r="E214" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F214" t="s" s="2">
+      <c r="F214" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G214" t="s" s="2">
+      <c r="G214" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H214" t="s" s="2">
+      <c r="H214" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -6341,28 +6353,28 @@
       </c>
     </row>
     <row r="216">
-      <c r="B216" t="s" s="2">
+      <c r="B216" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C216" t="s" s="2">
+      <c r="C216" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D216" t="s" s="2">
+      <c r="D216" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E216" t="s" s="2">
+      <c r="E216" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F216" t="s" s="2">
+      <c r="F216" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G216" t="s" s="2">
+      <c r="G216" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H216" t="s" s="2">
+      <c r="H216" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I216" t="s" s="2">
+      <c r="I216" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -6421,10 +6433,10 @@
       <c r="I218">
         <f>((C218-C217)^2+(D218- D217)^2)^.5</f>
       </c>
-      <c r="J218" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K218" s="2" t="s">
+      <c r="J218" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K218" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L218" t="n">
@@ -6468,28 +6480,28 @@
       </c>
     </row>
     <row r="220">
-      <c r="A220" t="s" s="2">
+      <c r="A220" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B220" t="s" s="2">
+      <c r="B220" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C220" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D220" t="s" s="2">
+      <c r="C220" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D220" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E220" t="s" s="2">
+      <c r="E220" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F220" t="s" s="2">
+      <c r="F220" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G220" t="s" s="2">
+      <c r="G220" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H220" t="s" s="2">
+      <c r="H220" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -6514,28 +6526,28 @@
       </c>
     </row>
     <row r="222">
-      <c r="B222" t="s" s="2">
+      <c r="B222" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C222" t="s" s="2">
+      <c r="C222" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D222" t="s" s="2">
+      <c r="D222" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E222" t="s" s="2">
+      <c r="E222" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F222" t="s" s="2">
+      <c r="F222" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G222" t="s" s="2">
+      <c r="G222" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H222" t="s" s="2">
+      <c r="H222" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I222" t="s" s="2">
+      <c r="I222" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -6594,10 +6606,10 @@
       <c r="I224">
         <f>((C224-C223)^2+(D224- D223)^2)^.5</f>
       </c>
-      <c r="J224" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K224" s="2" t="s">
+      <c r="J224" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K224" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L224" t="n">
@@ -6641,28 +6653,28 @@
       </c>
     </row>
     <row r="226">
-      <c r="A226" t="s" s="2">
+      <c r="A226" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B226" t="s" s="2">
+      <c r="B226" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C226" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D226" t="s" s="2">
+      <c r="C226" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D226" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E226" t="s" s="2">
+      <c r="E226" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F226" t="s" s="2">
+      <c r="F226" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G226" t="s" s="2">
+      <c r="G226" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H226" t="s" s="2">
+      <c r="H226" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -6687,28 +6699,28 @@
       </c>
     </row>
     <row r="228">
-      <c r="B228" t="s" s="2">
+      <c r="B228" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C228" t="s" s="2">
+      <c r="C228" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D228" t="s" s="2">
+      <c r="D228" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E228" t="s" s="2">
+      <c r="E228" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F228" t="s" s="2">
+      <c r="F228" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G228" t="s" s="2">
+      <c r="G228" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H228" t="s" s="2">
+      <c r="H228" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I228" t="s" s="2">
+      <c r="I228" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -6767,10 +6779,10 @@
       <c r="I230">
         <f>((C230-C229)^2+(D230- D229)^2)^.5</f>
       </c>
-      <c r="J230" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K230" s="2" t="s">
+      <c r="J230" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K230" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L230" t="n">
@@ -6814,28 +6826,28 @@
       </c>
     </row>
     <row r="232">
-      <c r="A232" t="s" s="2">
+      <c r="A232" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B232" t="s" s="2">
+      <c r="B232" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C232" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D232" t="s" s="2">
+      <c r="C232" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D232" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E232" t="s" s="2">
+      <c r="E232" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F232" t="s" s="2">
+      <c r="F232" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G232" t="s" s="2">
+      <c r="G232" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H232" t="s" s="2">
+      <c r="H232" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -6860,28 +6872,28 @@
       </c>
     </row>
     <row r="234">
-      <c r="B234" t="s" s="2">
+      <c r="B234" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C234" t="s" s="2">
+      <c r="C234" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D234" t="s" s="2">
+      <c r="D234" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E234" t="s" s="2">
+      <c r="E234" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F234" t="s" s="2">
+      <c r="F234" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G234" t="s" s="2">
+      <c r="G234" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H234" t="s" s="2">
+      <c r="H234" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I234" t="s" s="2">
+      <c r="I234" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -6940,10 +6952,10 @@
       <c r="I236">
         <f>((C236-C235)^2+(D236- D235)^2)^.5</f>
       </c>
-      <c r="J236" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K236" s="2" t="s">
+      <c r="J236" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K236" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L236" t="n">
@@ -6987,28 +6999,28 @@
       </c>
     </row>
     <row r="238">
-      <c r="A238" t="s" s="2">
+      <c r="A238" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B238" t="s" s="2">
+      <c r="B238" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C238" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D238" t="s" s="2">
+      <c r="C238" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D238" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E238" t="s" s="2">
+      <c r="E238" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F238" t="s" s="2">
+      <c r="F238" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G238" t="s" s="2">
+      <c r="G238" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H238" t="s" s="2">
+      <c r="H238" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -7033,28 +7045,28 @@
       </c>
     </row>
     <row r="240">
-      <c r="B240" t="s" s="2">
+      <c r="B240" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C240" t="s" s="2">
+      <c r="C240" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D240" t="s" s="2">
+      <c r="D240" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E240" t="s" s="2">
+      <c r="E240" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F240" t="s" s="2">
+      <c r="F240" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G240" t="s" s="2">
+      <c r="G240" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H240" t="s" s="2">
+      <c r="H240" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I240" t="s" s="2">
+      <c r="I240" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -7113,10 +7125,10 @@
       <c r="I242">
         <f>((C242-C241)^2+(D242- D241)^2)^.5</f>
       </c>
-      <c r="J242" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K242" s="2" t="s">
+      <c r="J242" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K242" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L242" t="n">
@@ -7160,28 +7172,28 @@
       </c>
     </row>
     <row r="244">
-      <c r="A244" t="s" s="2">
+      <c r="A244" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B244" t="s" s="2">
+      <c r="B244" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C244" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D244" t="s" s="2">
+      <c r="C244" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D244" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E244" t="s" s="2">
+      <c r="E244" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F244" t="s" s="2">
+      <c r="F244" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G244" t="s" s="2">
+      <c r="G244" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H244" t="s" s="2">
+      <c r="H244" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -7206,28 +7218,28 @@
       </c>
     </row>
     <row r="246">
-      <c r="B246" t="s" s="2">
+      <c r="B246" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C246" t="s" s="2">
+      <c r="C246" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D246" t="s" s="2">
+      <c r="D246" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E246" t="s" s="2">
+      <c r="E246" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F246" t="s" s="2">
+      <c r="F246" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G246" t="s" s="2">
+      <c r="G246" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H246" t="s" s="2">
+      <c r="H246" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I246" t="s" s="2">
+      <c r="I246" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -7286,10 +7298,10 @@
       <c r="I248">
         <f>((C248-C247)^2+(D248- D247)^2)^.5</f>
       </c>
-      <c r="J248" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K248" s="2" t="s">
+      <c r="J248" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K248" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L248" t="n">
@@ -7333,28 +7345,28 @@
       </c>
     </row>
     <row r="250">
-      <c r="A250" t="s" s="2">
+      <c r="A250" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B250" t="s" s="2">
+      <c r="B250" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C250" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D250" t="s" s="2">
+      <c r="C250" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D250" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E250" t="s" s="2">
+      <c r="E250" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F250" t="s" s="2">
+      <c r="F250" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G250" t="s" s="2">
+      <c r="G250" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H250" t="s" s="2">
+      <c r="H250" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -7379,28 +7391,28 @@
       </c>
     </row>
     <row r="252">
-      <c r="B252" t="s" s="2">
+      <c r="B252" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C252" t="s" s="2">
+      <c r="C252" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D252" t="s" s="2">
+      <c r="D252" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E252" t="s" s="2">
+      <c r="E252" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F252" t="s" s="2">
+      <c r="F252" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G252" t="s" s="2">
+      <c r="G252" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H252" t="s" s="2">
+      <c r="H252" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I252" t="s" s="2">
+      <c r="I252" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -7459,10 +7471,10 @@
       <c r="I254">
         <f>((C254-C253)^2+(D254- D253)^2)^.5</f>
       </c>
-      <c r="J254" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K254" s="2" t="s">
+      <c r="J254" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K254" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L254" t="n">
@@ -7506,28 +7518,28 @@
       </c>
     </row>
     <row r="256">
-      <c r="A256" t="s" s="2">
+      <c r="A256" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B256" t="s" s="2">
+      <c r="B256" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C256" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D256" t="s" s="2">
+      <c r="C256" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D256" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E256" t="s" s="2">
+      <c r="E256" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F256" t="s" s="2">
+      <c r="F256" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G256" t="s" s="2">
+      <c r="G256" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H256" t="s" s="2">
+      <c r="H256" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -7552,28 +7564,28 @@
       </c>
     </row>
     <row r="258">
-      <c r="B258" t="s" s="2">
+      <c r="B258" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C258" t="s" s="2">
+      <c r="C258" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D258" t="s" s="2">
+      <c r="D258" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E258" t="s" s="2">
+      <c r="E258" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F258" t="s" s="2">
+      <c r="F258" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G258" t="s" s="2">
+      <c r="G258" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H258" t="s" s="2">
+      <c r="H258" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I258" t="s" s="2">
+      <c r="I258" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -7632,10 +7644,10 @@
       <c r="I260">
         <f>((C260-C259)^2+(D260- D259)^2)^.5</f>
       </c>
-      <c r="J260" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K260" s="2" t="s">
+      <c r="J260" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K260" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L260" t="n">
@@ -7679,28 +7691,28 @@
       </c>
     </row>
     <row r="262">
-      <c r="A262" t="s" s="2">
+      <c r="A262" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B262" t="s" s="2">
+      <c r="B262" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C262" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D262" t="s" s="2">
+      <c r="C262" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D262" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E262" t="s" s="2">
+      <c r="E262" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F262" t="s" s="2">
+      <c r="F262" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G262" t="s" s="2">
+      <c r="G262" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H262" t="s" s="2">
+      <c r="H262" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -7725,28 +7737,28 @@
       </c>
     </row>
     <row r="264">
-      <c r="B264" t="s" s="2">
+      <c r="B264" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C264" t="s" s="2">
+      <c r="C264" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D264" t="s" s="2">
+      <c r="D264" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E264" t="s" s="2">
+      <c r="E264" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F264" t="s" s="2">
+      <c r="F264" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G264" t="s" s="2">
+      <c r="G264" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H264" t="s" s="2">
+      <c r="H264" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I264" t="s" s="2">
+      <c r="I264" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -7805,10 +7817,10 @@
       <c r="I266">
         <f>((C266-C265)^2+(D266- D265)^2)^.5</f>
       </c>
-      <c r="J266" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K266" s="2" t="s">
+      <c r="J266" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K266" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L266" t="n">
@@ -7852,28 +7864,28 @@
       </c>
     </row>
     <row r="268">
-      <c r="A268" t="s" s="2">
+      <c r="A268" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B268" t="s" s="2">
+      <c r="B268" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C268" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D268" t="s" s="2">
+      <c r="C268" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D268" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E268" t="s" s="2">
+      <c r="E268" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F268" t="s" s="2">
+      <c r="F268" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G268" t="s" s="2">
+      <c r="G268" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H268" t="s" s="2">
+      <c r="H268" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -7898,28 +7910,28 @@
       </c>
     </row>
     <row r="270">
-      <c r="B270" t="s" s="2">
+      <c r="B270" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C270" t="s" s="2">
+      <c r="C270" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D270" t="s" s="2">
+      <c r="D270" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E270" t="s" s="2">
+      <c r="E270" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F270" t="s" s="2">
+      <c r="F270" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G270" t="s" s="2">
+      <c r="G270" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H270" t="s" s="2">
+      <c r="H270" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I270" t="s" s="2">
+      <c r="I270" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -7978,10 +7990,10 @@
       <c r="I272">
         <f>((C272-C271)^2+(D272- D271)^2)^.5</f>
       </c>
-      <c r="J272" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K272" s="2" t="s">
+      <c r="J272" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K272" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L272" t="n">
@@ -8025,28 +8037,28 @@
       </c>
     </row>
     <row r="274">
-      <c r="A274" t="s" s="2">
+      <c r="A274" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B274" t="s" s="2">
+      <c r="B274" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C274" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D274" t="s" s="2">
+      <c r="C274" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D274" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E274" t="s" s="2">
+      <c r="E274" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F274" t="s" s="2">
+      <c r="F274" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G274" t="s" s="2">
+      <c r="G274" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H274" t="s" s="2">
+      <c r="H274" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -8071,28 +8083,28 @@
       </c>
     </row>
     <row r="276">
-      <c r="B276" t="s" s="2">
+      <c r="B276" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C276" t="s" s="2">
+      <c r="C276" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D276" t="s" s="2">
+      <c r="D276" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E276" t="s" s="2">
+      <c r="E276" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F276" t="s" s="2">
+      <c r="F276" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G276" t="s" s="2">
+      <c r="G276" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H276" t="s" s="2">
+      <c r="H276" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I276" t="s" s="2">
+      <c r="I276" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -8151,10 +8163,10 @@
       <c r="I278">
         <f>((C278-C277)^2+(D278- D277)^2)^.5</f>
       </c>
-      <c r="J278" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K278" s="2" t="s">
+      <c r="J278" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K278" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L278" t="n">
@@ -8198,28 +8210,28 @@
       </c>
     </row>
     <row r="280">
-      <c r="A280" t="s" s="2">
+      <c r="A280" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B280" t="s" s="2">
+      <c r="B280" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C280" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D280" t="s" s="2">
+      <c r="C280" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D280" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E280" t="s" s="2">
+      <c r="E280" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F280" t="s" s="2">
+      <c r="F280" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G280" t="s" s="2">
+      <c r="G280" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H280" t="s" s="2">
+      <c r="H280" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -8244,28 +8256,28 @@
       </c>
     </row>
     <row r="282">
-      <c r="B282" t="s" s="2">
+      <c r="B282" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C282" t="s" s="2">
+      <c r="C282" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D282" t="s" s="2">
+      <c r="D282" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E282" t="s" s="2">
+      <c r="E282" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F282" t="s" s="2">
+      <c r="F282" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G282" t="s" s="2">
+      <c r="G282" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H282" t="s" s="2">
+      <c r="H282" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I282" t="s" s="2">
+      <c r="I282" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -8324,10 +8336,10 @@
       <c r="I284">
         <f>((C284-C283)^2+(D284- D283)^2)^.5</f>
       </c>
-      <c r="J284" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K284" s="2" t="s">
+      <c r="J284" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K284" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L284" t="n">
@@ -8371,28 +8383,28 @@
       </c>
     </row>
     <row r="286">
-      <c r="A286" t="s" s="2">
+      <c r="A286" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B286" t="s" s="2">
+      <c r="B286" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C286" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D286" t="s" s="2">
+      <c r="C286" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D286" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E286" t="s" s="2">
+      <c r="E286" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F286" t="s" s="2">
+      <c r="F286" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G286" t="s" s="2">
+      <c r="G286" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H286" t="s" s="2">
+      <c r="H286" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -8417,28 +8429,28 @@
       </c>
     </row>
     <row r="288">
-      <c r="B288" t="s" s="2">
+      <c r="B288" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C288" t="s" s="2">
+      <c r="C288" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D288" t="s" s="2">
+      <c r="D288" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E288" t="s" s="2">
+      <c r="E288" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F288" t="s" s="2">
+      <c r="F288" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G288" t="s" s="2">
+      <c r="G288" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H288" t="s" s="2">
+      <c r="H288" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I288" t="s" s="2">
+      <c r="I288" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -8497,10 +8509,10 @@
       <c r="I290">
         <f>((C290-C289)^2+(D290- D289)^2)^.5</f>
       </c>
-      <c r="J290" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K290" s="2" t="s">
+      <c r="J290" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K290" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L290" t="n">
@@ -8544,28 +8556,28 @@
       </c>
     </row>
     <row r="292">
-      <c r="A292" t="s" s="2">
+      <c r="A292" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B292" t="s" s="2">
+      <c r="B292" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C292" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D292" t="s" s="2">
+      <c r="C292" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D292" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E292" t="s" s="2">
+      <c r="E292" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F292" t="s" s="2">
+      <c r="F292" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G292" t="s" s="2">
+      <c r="G292" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H292" t="s" s="2">
+      <c r="H292" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -8590,28 +8602,28 @@
       </c>
     </row>
     <row r="294">
-      <c r="B294" t="s" s="2">
+      <c r="B294" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C294" t="s" s="2">
+      <c r="C294" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D294" t="s" s="2">
+      <c r="D294" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E294" t="s" s="2">
+      <c r="E294" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F294" t="s" s="2">
+      <c r="F294" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G294" t="s" s="2">
+      <c r="G294" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H294" t="s" s="2">
+      <c r="H294" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I294" t="s" s="2">
+      <c r="I294" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -8670,10 +8682,10 @@
       <c r="I296">
         <f>((C296-C295)^2+(D296- D295)^2)^.5</f>
       </c>
-      <c r="J296" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K296" s="2" t="s">
+      <c r="J296" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K296" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L296" t="n">
@@ -8717,28 +8729,28 @@
       </c>
     </row>
     <row r="298">
-      <c r="A298" t="s" s="2">
+      <c r="A298" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B298" t="s" s="2">
+      <c r="B298" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C298" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D298" t="s" s="2">
+      <c r="C298" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D298" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E298" t="s" s="2">
+      <c r="E298" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F298" t="s" s="2">
+      <c r="F298" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G298" t="s" s="2">
+      <c r="G298" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H298" t="s" s="2">
+      <c r="H298" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -8763,28 +8775,28 @@
       </c>
     </row>
     <row r="300">
-      <c r="B300" t="s" s="2">
+      <c r="B300" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C300" t="s" s="2">
+      <c r="C300" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D300" t="s" s="2">
+      <c r="D300" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E300" t="s" s="2">
+      <c r="E300" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F300" t="s" s="2">
+      <c r="F300" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G300" t="s" s="2">
+      <c r="G300" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H300" t="s" s="2">
+      <c r="H300" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I300" t="s" s="2">
+      <c r="I300" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -8843,10 +8855,10 @@
       <c r="I302">
         <f>((C302-C301)^2+(D302- D301)^2)^.5</f>
       </c>
-      <c r="J302" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K302" s="2" t="s">
+      <c r="J302" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K302" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L302" t="n">
@@ -8890,28 +8902,28 @@
       </c>
     </row>
     <row r="304">
-      <c r="A304" t="s" s="2">
+      <c r="A304" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B304" t="s" s="2">
+      <c r="B304" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C304" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D304" t="s" s="2">
+      <c r="C304" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D304" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E304" t="s" s="2">
+      <c r="E304" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F304" t="s" s="2">
+      <c r="F304" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G304" t="s" s="2">
+      <c r="G304" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H304" t="s" s="2">
+      <c r="H304" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -8936,28 +8948,28 @@
       </c>
     </row>
     <row r="306">
-      <c r="B306" t="s" s="2">
+      <c r="B306" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C306" t="s" s="2">
+      <c r="C306" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D306" t="s" s="2">
+      <c r="D306" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E306" t="s" s="2">
+      <c r="E306" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F306" t="s" s="2">
+      <c r="F306" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G306" t="s" s="2">
+      <c r="G306" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H306" t="s" s="2">
+      <c r="H306" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I306" t="s" s="2">
+      <c r="I306" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -9016,10 +9028,10 @@
       <c r="I308">
         <f>((C308-C307)^2+(D308- D307)^2)^.5</f>
       </c>
-      <c r="J308" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K308" s="2" t="s">
+      <c r="J308" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K308" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L308" t="n">
@@ -9063,28 +9075,28 @@
       </c>
     </row>
     <row r="310">
-      <c r="A310" t="s" s="2">
+      <c r="A310" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B310" t="s" s="2">
+      <c r="B310" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C310" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D310" t="s" s="2">
+      <c r="C310" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D310" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E310" t="s" s="2">
+      <c r="E310" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F310" t="s" s="2">
+      <c r="F310" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G310" t="s" s="2">
+      <c r="G310" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H310" t="s" s="2">
+      <c r="H310" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -9109,28 +9121,28 @@
       </c>
     </row>
     <row r="312">
-      <c r="B312" t="s" s="2">
+      <c r="B312" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C312" t="s" s="2">
+      <c r="C312" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D312" t="s" s="2">
+      <c r="D312" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E312" t="s" s="2">
+      <c r="E312" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F312" t="s" s="2">
+      <c r="F312" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G312" t="s" s="2">
+      <c r="G312" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H312" t="s" s="2">
+      <c r="H312" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I312" t="s" s="2">
+      <c r="I312" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -9189,10 +9201,10 @@
       <c r="I314">
         <f>((C314-C313)^2+(D314- D313)^2)^.5</f>
       </c>
-      <c r="J314" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K314" s="2" t="s">
+      <c r="J314" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K314" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L314" t="n">
@@ -9236,28 +9248,28 @@
       </c>
     </row>
     <row r="316">
-      <c r="A316" t="s" s="2">
+      <c r="A316" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B316" t="s" s="2">
+      <c r="B316" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C316" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D316" t="s" s="2">
+      <c r="C316" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D316" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E316" t="s" s="2">
+      <c r="E316" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F316" t="s" s="2">
+      <c r="F316" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G316" t="s" s="2">
+      <c r="G316" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H316" t="s" s="2">
+      <c r="H316" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -9282,28 +9294,28 @@
       </c>
     </row>
     <row r="318">
-      <c r="B318" t="s" s="2">
+      <c r="B318" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C318" t="s" s="2">
+      <c r="C318" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D318" t="s" s="2">
+      <c r="D318" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E318" t="s" s="2">
+      <c r="E318" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F318" t="s" s="2">
+      <c r="F318" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G318" t="s" s="2">
+      <c r="G318" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H318" t="s" s="2">
+      <c r="H318" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I318" t="s" s="2">
+      <c r="I318" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -9362,10 +9374,10 @@
       <c r="I320">
         <f>((C320-C319)^2+(D320- D319)^2)^.5</f>
       </c>
-      <c r="J320" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K320" s="2" t="s">
+      <c r="J320" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K320" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L320" t="n">
@@ -9409,28 +9421,28 @@
       </c>
     </row>
     <row r="322">
-      <c r="A322" t="s" s="2">
+      <c r="A322" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B322" t="s" s="2">
+      <c r="B322" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C322" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D322" t="s" s="2">
+      <c r="C322" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D322" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E322" t="s" s="2">
+      <c r="E322" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F322" t="s" s="2">
+      <c r="F322" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G322" t="s" s="2">
+      <c r="G322" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H322" t="s" s="2">
+      <c r="H322" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -9455,28 +9467,28 @@
       </c>
     </row>
     <row r="324">
-      <c r="B324" t="s" s="2">
+      <c r="B324" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C324" t="s" s="2">
+      <c r="C324" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D324" t="s" s="2">
+      <c r="D324" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E324" t="s" s="2">
+      <c r="E324" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F324" t="s" s="2">
+      <c r="F324" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G324" t="s" s="2">
+      <c r="G324" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H324" t="s" s="2">
+      <c r="H324" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I324" t="s" s="2">
+      <c r="I324" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -9535,10 +9547,10 @@
       <c r="I326">
         <f>((C326-C325)^2+(D326- D325)^2)^.5</f>
       </c>
-      <c r="J326" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K326" s="2" t="s">
+      <c r="J326" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K326" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L326" t="n">
@@ -9582,28 +9594,28 @@
       </c>
     </row>
     <row r="328">
-      <c r="A328" t="s" s="2">
+      <c r="A328" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B328" t="s" s="2">
+      <c r="B328" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C328" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D328" t="s" s="2">
+      <c r="C328" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D328" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E328" t="s" s="2">
+      <c r="E328" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F328" t="s" s="2">
+      <c r="F328" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G328" t="s" s="2">
+      <c r="G328" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H328" t="s" s="2">
+      <c r="H328" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -9628,28 +9640,28 @@
       </c>
     </row>
     <row r="330">
-      <c r="B330" t="s" s="2">
+      <c r="B330" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C330" t="s" s="2">
+      <c r="C330" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D330" t="s" s="2">
+      <c r="D330" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E330" t="s" s="2">
+      <c r="E330" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F330" t="s" s="2">
+      <c r="F330" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G330" t="s" s="2">
+      <c r="G330" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H330" t="s" s="2">
+      <c r="H330" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I330" t="s" s="2">
+      <c r="I330" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -9708,10 +9720,10 @@
       <c r="I332">
         <f>((C332-C331)^2+(D332- D331)^2)^.5</f>
       </c>
-      <c r="J332" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K332" s="2" t="s">
+      <c r="J332" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K332" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L332" t="n">
@@ -9755,28 +9767,28 @@
       </c>
     </row>
     <row r="334">
-      <c r="A334" t="s" s="2">
+      <c r="A334" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B334" t="s" s="2">
+      <c r="B334" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C334" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D334" t="s" s="2">
+      <c r="C334" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D334" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E334" t="s" s="2">
+      <c r="E334" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F334" t="s" s="2">
+      <c r="F334" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G334" t="s" s="2">
+      <c r="G334" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H334" t="s" s="2">
+      <c r="H334" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -9801,28 +9813,28 @@
       </c>
     </row>
     <row r="336">
-      <c r="B336" t="s" s="2">
+      <c r="B336" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C336" t="s" s="2">
+      <c r="C336" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D336" t="s" s="2">
+      <c r="D336" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E336" t="s" s="2">
+      <c r="E336" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F336" t="s" s="2">
+      <c r="F336" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G336" t="s" s="2">
+      <c r="G336" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H336" t="s" s="2">
+      <c r="H336" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I336" t="s" s="2">
+      <c r="I336" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -9881,10 +9893,10 @@
       <c r="I338">
         <f>((C338-C337)^2+(D338- D337)^2)^.5</f>
       </c>
-      <c r="J338" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K338" s="2" t="s">
+      <c r="J338" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K338" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L338" t="n">
@@ -9928,28 +9940,28 @@
       </c>
     </row>
     <row r="340">
-      <c r="A340" t="s" s="2">
+      <c r="A340" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B340" t="s" s="2">
+      <c r="B340" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C340" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D340" t="s" s="2">
+      <c r="C340" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D340" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E340" t="s" s="2">
+      <c r="E340" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F340" t="s" s="2">
+      <c r="F340" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G340" t="s" s="2">
+      <c r="G340" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H340" t="s" s="2">
+      <c r="H340" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -9974,28 +9986,28 @@
       </c>
     </row>
     <row r="342">
-      <c r="B342" t="s" s="2">
+      <c r="B342" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C342" t="s" s="2">
+      <c r="C342" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D342" t="s" s="2">
+      <c r="D342" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E342" t="s" s="2">
+      <c r="E342" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F342" t="s" s="2">
+      <c r="F342" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G342" t="s" s="2">
+      <c r="G342" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H342" t="s" s="2">
+      <c r="H342" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I342" t="s" s="2">
+      <c r="I342" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -10054,10 +10066,10 @@
       <c r="I344">
         <f>((C344-C343)^2+(D344- D343)^2)^.5</f>
       </c>
-      <c r="J344" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K344" s="2" t="s">
+      <c r="J344" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K344" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L344" t="n">
@@ -10101,28 +10113,28 @@
       </c>
     </row>
     <row r="346">
-      <c r="A346" t="s" s="2">
+      <c r="A346" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B346" t="s" s="2">
+      <c r="B346" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C346" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D346" t="s" s="2">
+      <c r="C346" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D346" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E346" t="s" s="2">
+      <c r="E346" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F346" t="s" s="2">
+      <c r="F346" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G346" t="s" s="2">
+      <c r="G346" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H346" t="s" s="2">
+      <c r="H346" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -10147,28 +10159,28 @@
       </c>
     </row>
     <row r="348">
-      <c r="B348" t="s" s="2">
+      <c r="B348" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C348" t="s" s="2">
+      <c r="C348" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D348" t="s" s="2">
+      <c r="D348" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E348" t="s" s="2">
+      <c r="E348" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F348" t="s" s="2">
+      <c r="F348" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G348" t="s" s="2">
+      <c r="G348" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H348" t="s" s="2">
+      <c r="H348" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I348" t="s" s="2">
+      <c r="I348" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -10227,10 +10239,10 @@
       <c r="I350">
         <f>((C350-C349)^2+(D350- D349)^2)^.5</f>
       </c>
-      <c r="J350" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K350" s="2" t="s">
+      <c r="J350" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K350" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L350" t="n">
@@ -10274,28 +10286,28 @@
       </c>
     </row>
     <row r="352">
-      <c r="A352" t="s" s="2">
+      <c r="A352" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B352" t="s" s="2">
+      <c r="B352" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C352" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D352" t="s" s="2">
+      <c r="C352" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D352" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E352" t="s" s="2">
+      <c r="E352" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F352" t="s" s="2">
+      <c r="F352" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G352" t="s" s="2">
+      <c r="G352" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H352" t="s" s="2">
+      <c r="H352" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -10320,28 +10332,28 @@
       </c>
     </row>
     <row r="354">
-      <c r="B354" t="s" s="2">
+      <c r="B354" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C354" t="s" s="2">
+      <c r="C354" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D354" t="s" s="2">
+      <c r="D354" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E354" t="s" s="2">
+      <c r="E354" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F354" t="s" s="2">
+      <c r="F354" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G354" t="s" s="2">
+      <c r="G354" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H354" t="s" s="2">
+      <c r="H354" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I354" t="s" s="2">
+      <c r="I354" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -10400,10 +10412,10 @@
       <c r="I356">
         <f>((C356-C355)^2+(D356- D355)^2)^.5</f>
       </c>
-      <c r="J356" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K356" s="2" t="s">
+      <c r="J356" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K356" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L356" t="n">
@@ -10447,28 +10459,28 @@
       </c>
     </row>
     <row r="358">
-      <c r="A358" t="s" s="2">
+      <c r="A358" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B358" t="s" s="2">
+      <c r="B358" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C358" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D358" t="s" s="2">
+      <c r="C358" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D358" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E358" t="s" s="2">
+      <c r="E358" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F358" t="s" s="2">
+      <c r="F358" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G358" t="s" s="2">
+      <c r="G358" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H358" t="s" s="2">
+      <c r="H358" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -10493,28 +10505,28 @@
       </c>
     </row>
     <row r="360">
-      <c r="B360" t="s" s="2">
+      <c r="B360" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C360" t="s" s="2">
+      <c r="C360" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D360" t="s" s="2">
+      <c r="D360" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E360" t="s" s="2">
+      <c r="E360" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F360" t="s" s="2">
+      <c r="F360" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G360" t="s" s="2">
+      <c r="G360" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H360" t="s" s="2">
+      <c r="H360" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I360" t="s" s="2">
+      <c r="I360" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -10573,10 +10585,10 @@
       <c r="I362">
         <f>((C362-C361)^2+(D362- D361)^2)^.5</f>
       </c>
-      <c r="J362" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K362" s="2" t="s">
+      <c r="J362" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K362" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L362" t="n">
@@ -10620,28 +10632,28 @@
       </c>
     </row>
     <row r="364">
-      <c r="A364" t="s" s="2">
+      <c r="A364" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B364" t="s" s="2">
+      <c r="B364" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C364" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D364" t="s" s="2">
+      <c r="C364" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D364" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E364" t="s" s="2">
+      <c r="E364" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F364" t="s" s="2">
+      <c r="F364" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G364" t="s" s="2">
+      <c r="G364" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H364" t="s" s="2">
+      <c r="H364" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -10666,28 +10678,28 @@
       </c>
     </row>
     <row r="366">
-      <c r="B366" t="s" s="2">
+      <c r="B366" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C366" t="s" s="2">
+      <c r="C366" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D366" t="s" s="2">
+      <c r="D366" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E366" t="s" s="2">
+      <c r="E366" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F366" t="s" s="2">
+      <c r="F366" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G366" t="s" s="2">
+      <c r="G366" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H366" t="s" s="2">
+      <c r="H366" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I366" t="s" s="2">
+      <c r="I366" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -10746,10 +10758,10 @@
       <c r="I368">
         <f>((C368-C367)^2+(D368- D367)^2)^.5</f>
       </c>
-      <c r="J368" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K368" s="2" t="s">
+      <c r="J368" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K368" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L368" t="n">
@@ -10793,28 +10805,28 @@
       </c>
     </row>
     <row r="370">
-      <c r="A370" t="s" s="2">
+      <c r="A370" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B370" t="s" s="2">
+      <c r="B370" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C370" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D370" t="s" s="2">
+      <c r="C370" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D370" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E370" t="s" s="2">
+      <c r="E370" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F370" t="s" s="2">
+      <c r="F370" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G370" t="s" s="2">
+      <c r="G370" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H370" t="s" s="2">
+      <c r="H370" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -10839,28 +10851,28 @@
       </c>
     </row>
     <row r="372">
-      <c r="B372" t="s" s="2">
+      <c r="B372" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C372" t="s" s="2">
+      <c r="C372" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D372" t="s" s="2">
+      <c r="D372" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E372" t="s" s="2">
+      <c r="E372" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F372" t="s" s="2">
+      <c r="F372" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G372" t="s" s="2">
+      <c r="G372" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H372" t="s" s="2">
+      <c r="H372" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I372" t="s" s="2">
+      <c r="I372" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -10919,10 +10931,10 @@
       <c r="I374">
         <f>((C374-C373)^2+(D374- D373)^2)^.5</f>
       </c>
-      <c r="J374" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K374" s="2" t="s">
+      <c r="J374" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K374" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L374" t="n">
@@ -10966,28 +10978,28 @@
       </c>
     </row>
     <row r="376">
-      <c r="A376" t="s" s="2">
+      <c r="A376" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B376" t="s" s="2">
+      <c r="B376" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C376" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D376" t="s" s="2">
+      <c r="C376" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D376" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E376" t="s" s="2">
+      <c r="E376" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F376" t="s" s="2">
+      <c r="F376" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G376" t="s" s="2">
+      <c r="G376" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H376" t="s" s="2">
+      <c r="H376" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -11012,28 +11024,28 @@
       </c>
     </row>
     <row r="378">
-      <c r="B378" t="s" s="2">
+      <c r="B378" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C378" t="s" s="2">
+      <c r="C378" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D378" t="s" s="2">
+      <c r="D378" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E378" t="s" s="2">
+      <c r="E378" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F378" t="s" s="2">
+      <c r="F378" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G378" t="s" s="2">
+      <c r="G378" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H378" t="s" s="2">
+      <c r="H378" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I378" t="s" s="2">
+      <c r="I378" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -11092,10 +11104,10 @@
       <c r="I380">
         <f>((C380-C379)^2+(D380- D379)^2)^.5</f>
       </c>
-      <c r="J380" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K380" s="2" t="s">
+      <c r="J380" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K380" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L380" t="n">
@@ -11139,28 +11151,28 @@
       </c>
     </row>
     <row r="382">
-      <c r="A382" t="s" s="2">
+      <c r="A382" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B382" t="s" s="2">
+      <c r="B382" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C382" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D382" t="s" s="2">
+      <c r="C382" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D382" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E382" t="s" s="2">
+      <c r="E382" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F382" t="s" s="2">
+      <c r="F382" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G382" t="s" s="2">
+      <c r="G382" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H382" t="s" s="2">
+      <c r="H382" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -11185,28 +11197,28 @@
       </c>
     </row>
     <row r="384">
-      <c r="B384" t="s" s="2">
+      <c r="B384" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C384" t="s" s="2">
+      <c r="C384" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D384" t="s" s="2">
+      <c r="D384" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E384" t="s" s="2">
+      <c r="E384" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F384" t="s" s="2">
+      <c r="F384" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G384" t="s" s="2">
+      <c r="G384" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H384" t="s" s="2">
+      <c r="H384" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I384" t="s" s="2">
+      <c r="I384" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -11265,10 +11277,10 @@
       <c r="I386">
         <f>((C386-C385)^2+(D386- D385)^2)^.5</f>
       </c>
-      <c r="J386" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K386" s="2" t="s">
+      <c r="J386" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K386" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L386" t="n">
@@ -11312,28 +11324,28 @@
       </c>
     </row>
     <row r="388">
-      <c r="A388" t="s" s="2">
+      <c r="A388" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B388" t="s" s="2">
+      <c r="B388" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C388" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D388" t="s" s="2">
+      <c r="C388" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D388" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E388" t="s" s="2">
+      <c r="E388" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F388" t="s" s="2">
+      <c r="F388" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G388" t="s" s="2">
+      <c r="G388" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H388" t="s" s="2">
+      <c r="H388" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -11358,28 +11370,28 @@
       </c>
     </row>
     <row r="390">
-      <c r="B390" t="s" s="2">
+      <c r="B390" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C390" t="s" s="2">
+      <c r="C390" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D390" t="s" s="2">
+      <c r="D390" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E390" t="s" s="2">
+      <c r="E390" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F390" t="s" s="2">
+      <c r="F390" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G390" t="s" s="2">
+      <c r="G390" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H390" t="s" s="2">
+      <c r="H390" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I390" t="s" s="2">
+      <c r="I390" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -11438,10 +11450,10 @@
       <c r="I392">
         <f>((C392-C391)^2+(D392- D391)^2)^.5</f>
       </c>
-      <c r="J392" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K392" s="2" t="s">
+      <c r="J392" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K392" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L392" t="n">
@@ -11485,28 +11497,28 @@
       </c>
     </row>
     <row r="394">
-      <c r="A394" t="s" s="2">
+      <c r="A394" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B394" t="s" s="2">
+      <c r="B394" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C394" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D394" t="s" s="2">
+      <c r="C394" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D394" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E394" t="s" s="2">
+      <c r="E394" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F394" t="s" s="2">
+      <c r="F394" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G394" t="s" s="2">
+      <c r="G394" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H394" t="s" s="2">
+      <c r="H394" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -11531,28 +11543,28 @@
       </c>
     </row>
     <row r="396">
-      <c r="B396" t="s" s="2">
+      <c r="B396" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C396" t="s" s="2">
+      <c r="C396" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D396" t="s" s="2">
+      <c r="D396" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E396" t="s" s="2">
+      <c r="E396" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F396" t="s" s="2">
+      <c r="F396" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G396" t="s" s="2">
+      <c r="G396" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H396" t="s" s="2">
+      <c r="H396" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I396" t="s" s="2">
+      <c r="I396" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -11611,10 +11623,10 @@
       <c r="I398">
         <f>((C398-C397)^2+(D398- D397)^2)^.5</f>
       </c>
-      <c r="J398" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K398" s="2" t="s">
+      <c r="J398" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K398" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L398" t="n">
@@ -11658,28 +11670,28 @@
       </c>
     </row>
     <row r="400">
-      <c r="A400" t="s" s="2">
+      <c r="A400" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B400" t="s" s="2">
+      <c r="B400" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C400" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D400" t="s" s="2">
+      <c r="C400" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D400" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E400" t="s" s="2">
+      <c r="E400" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F400" t="s" s="2">
+      <c r="F400" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G400" t="s" s="2">
+      <c r="G400" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H400" t="s" s="2">
+      <c r="H400" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -11704,28 +11716,28 @@
       </c>
     </row>
     <row r="402">
-      <c r="B402" t="s" s="2">
+      <c r="B402" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C402" t="s" s="2">
+      <c r="C402" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D402" t="s" s="2">
+      <c r="D402" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E402" t="s" s="2">
+      <c r="E402" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F402" t="s" s="2">
+      <c r="F402" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G402" t="s" s="2">
+      <c r="G402" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H402" t="s" s="2">
+      <c r="H402" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I402" t="s" s="2">
+      <c r="I402" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -11784,10 +11796,10 @@
       <c r="I404">
         <f>((C404-C403)^2+(D404- D403)^2)^.5</f>
       </c>
-      <c r="J404" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K404" s="2" t="s">
+      <c r="J404" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K404" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L404" t="n">
@@ -11831,28 +11843,28 @@
       </c>
     </row>
     <row r="406">
-      <c r="A406" t="s" s="2">
+      <c r="A406" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B406" t="s" s="2">
+      <c r="B406" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C406" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D406" t="s" s="2">
+      <c r="C406" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D406" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E406" t="s" s="2">
+      <c r="E406" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F406" t="s" s="2">
+      <c r="F406" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G406" t="s" s="2">
+      <c r="G406" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H406" t="s" s="2">
+      <c r="H406" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -11877,28 +11889,28 @@
       </c>
     </row>
     <row r="408">
-      <c r="B408" t="s" s="2">
+      <c r="B408" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C408" t="s" s="2">
+      <c r="C408" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D408" t="s" s="2">
+      <c r="D408" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E408" t="s" s="2">
+      <c r="E408" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F408" t="s" s="2">
+      <c r="F408" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G408" t="s" s="2">
+      <c r="G408" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H408" t="s" s="2">
+      <c r="H408" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I408" t="s" s="2">
+      <c r="I408" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -11957,10 +11969,10 @@
       <c r="I410">
         <f>((C410-C409)^2+(D410- D409)^2)^.5</f>
       </c>
-      <c r="J410" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K410" s="2" t="s">
+      <c r="J410" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K410" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L410" t="n">
@@ -12004,28 +12016,28 @@
       </c>
     </row>
     <row r="412">
-      <c r="A412" t="s" s="2">
+      <c r="A412" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B412" t="s" s="2">
+      <c r="B412" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C412" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D412" t="s" s="2">
+      <c r="C412" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D412" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E412" t="s" s="2">
+      <c r="E412" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F412" t="s" s="2">
+      <c r="F412" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G412" t="s" s="2">
+      <c r="G412" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H412" t="s" s="2">
+      <c r="H412" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -12050,28 +12062,28 @@
       </c>
     </row>
     <row r="414">
-      <c r="B414" t="s" s="2">
+      <c r="B414" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C414" t="s" s="2">
+      <c r="C414" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D414" t="s" s="2">
+      <c r="D414" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E414" t="s" s="2">
+      <c r="E414" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F414" t="s" s="2">
+      <c r="F414" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G414" t="s" s="2">
+      <c r="G414" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H414" t="s" s="2">
+      <c r="H414" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I414" t="s" s="2">
+      <c r="I414" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -12130,10 +12142,10 @@
       <c r="I416">
         <f>((C416-C415)^2+(D416- D415)^2)^.5</f>
       </c>
-      <c r="J416" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K416" s="2" t="s">
+      <c r="J416" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K416" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L416" t="n">
@@ -12177,28 +12189,28 @@
       </c>
     </row>
     <row r="418">
-      <c r="A418" t="s" s="2">
+      <c r="A418" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B418" t="s" s="2">
+      <c r="B418" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C418" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D418" t="s" s="2">
+      <c r="C418" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D418" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E418" t="s" s="2">
+      <c r="E418" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F418" t="s" s="2">
+      <c r="F418" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G418" t="s" s="2">
+      <c r="G418" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H418" t="s" s="2">
+      <c r="H418" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -12223,28 +12235,28 @@
       </c>
     </row>
     <row r="420">
-      <c r="B420" t="s" s="2">
+      <c r="B420" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C420" t="s" s="2">
+      <c r="C420" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D420" t="s" s="2">
+      <c r="D420" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E420" t="s" s="2">
+      <c r="E420" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F420" t="s" s="2">
+      <c r="F420" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G420" t="s" s="2">
+      <c r="G420" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H420" t="s" s="2">
+      <c r="H420" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I420" t="s" s="2">
+      <c r="I420" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -12303,10 +12315,10 @@
       <c r="I422">
         <f>((C422-C421)^2+(D422- D421)^2)^.5</f>
       </c>
-      <c r="J422" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K422" s="2" t="s">
+      <c r="J422" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K422" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L422" t="n">
@@ -12350,28 +12362,28 @@
       </c>
     </row>
     <row r="424">
-      <c r="A424" t="s" s="2">
+      <c r="A424" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B424" t="s" s="2">
+      <c r="B424" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C424" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D424" t="s" s="2">
+      <c r="C424" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D424" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E424" t="s" s="2">
+      <c r="E424" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F424" t="s" s="2">
+      <c r="F424" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G424" t="s" s="2">
+      <c r="G424" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H424" t="s" s="2">
+      <c r="H424" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -12396,28 +12408,28 @@
       </c>
     </row>
     <row r="426">
-      <c r="B426" t="s" s="2">
+      <c r="B426" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C426" t="s" s="2">
+      <c r="C426" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D426" t="s" s="2">
+      <c r="D426" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E426" t="s" s="2">
+      <c r="E426" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F426" t="s" s="2">
+      <c r="F426" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G426" t="s" s="2">
+      <c r="G426" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H426" t="s" s="2">
+      <c r="H426" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I426" t="s" s="2">
+      <c r="I426" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -12476,10 +12488,10 @@
       <c r="I428">
         <f>((C428-C427)^2+(D428- D427)^2)^.5</f>
       </c>
-      <c r="J428" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K428" s="2" t="s">
+      <c r="J428" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K428" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L428" t="n">
@@ -12523,28 +12535,28 @@
       </c>
     </row>
     <row r="430">
-      <c r="A430" t="s" s="2">
+      <c r="A430" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B430" t="s" s="2">
+      <c r="B430" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C430" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D430" t="s" s="2">
+      <c r="C430" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D430" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E430" t="s" s="2">
+      <c r="E430" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F430" t="s" s="2">
+      <c r="F430" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G430" t="s" s="2">
+      <c r="G430" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H430" t="s" s="2">
+      <c r="H430" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -12569,28 +12581,28 @@
       </c>
     </row>
     <row r="432">
-      <c r="B432" t="s" s="2">
+      <c r="B432" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C432" t="s" s="2">
+      <c r="C432" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D432" t="s" s="2">
+      <c r="D432" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E432" t="s" s="2">
+      <c r="E432" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F432" t="s" s="2">
+      <c r="F432" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G432" t="s" s="2">
+      <c r="G432" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H432" t="s" s="2">
+      <c r="H432" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I432" t="s" s="2">
+      <c r="I432" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -12649,10 +12661,10 @@
       <c r="I434">
         <f>((C434-C433)^2+(D434- D433)^2)^.5</f>
       </c>
-      <c r="J434" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K434" s="2" t="s">
+      <c r="J434" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K434" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L434" t="n">
@@ -12696,28 +12708,28 @@
       </c>
     </row>
     <row r="436">
-      <c r="A436" t="s" s="2">
+      <c r="A436" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B436" t="s" s="2">
+      <c r="B436" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C436" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D436" t="s" s="2">
+      <c r="C436" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D436" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E436" t="s" s="2">
+      <c r="E436" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F436" t="s" s="2">
+      <c r="F436" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G436" t="s" s="2">
+      <c r="G436" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H436" t="s" s="2">
+      <c r="H436" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -12742,28 +12754,28 @@
       </c>
     </row>
     <row r="438">
-      <c r="B438" t="s" s="2">
+      <c r="B438" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C438" t="s" s="2">
+      <c r="C438" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D438" t="s" s="2">
+      <c r="D438" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E438" t="s" s="2">
+      <c r="E438" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F438" t="s" s="2">
+      <c r="F438" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G438" t="s" s="2">
+      <c r="G438" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H438" t="s" s="2">
+      <c r="H438" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I438" t="s" s="2">
+      <c r="I438" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -12822,10 +12834,10 @@
       <c r="I440">
         <f>((C440-C439)^2+(D440- D439)^2)^.5</f>
       </c>
-      <c r="J440" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K440" s="2" t="s">
+      <c r="J440" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K440" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L440" t="n">
@@ -12869,28 +12881,28 @@
       </c>
     </row>
     <row r="442">
-      <c r="A442" t="s" s="2">
+      <c r="A442" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B442" t="s" s="2">
+      <c r="B442" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C442" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D442" t="s" s="2">
+      <c r="C442" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D442" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E442" t="s" s="2">
+      <c r="E442" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F442" t="s" s="2">
+      <c r="F442" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G442" t="s" s="2">
+      <c r="G442" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H442" t="s" s="2">
+      <c r="H442" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -12915,28 +12927,28 @@
       </c>
     </row>
     <row r="444">
-      <c r="B444" t="s" s="2">
+      <c r="B444" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C444" t="s" s="2">
+      <c r="C444" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D444" t="s" s="2">
+      <c r="D444" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E444" t="s" s="2">
+      <c r="E444" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F444" t="s" s="2">
+      <c r="F444" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G444" t="s" s="2">
+      <c r="G444" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H444" t="s" s="2">
+      <c r="H444" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I444" t="s" s="2">
+      <c r="I444" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -12995,10 +13007,10 @@
       <c r="I446">
         <f>((C446-C445)^2+(D446- D445)^2)^.5</f>
       </c>
-      <c r="J446" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K446" s="2" t="s">
+      <c r="J446" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K446" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L446" t="n">
